--- a/database/FOODSQ.xlsx
+++ b/database/FOODSQ.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="2856" windowHeight="5784"/>
+    <workbookView xWindow="11028" yWindow="-12" windowWidth="10956" windowHeight="9504" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
@@ -22,7 +17,7 @@
     <sheet name="detail" sheetId="8" r:id="rId8"/>
     <sheet name="detailSubjoin" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="298">
   <si>
     <t>price</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -393,13 +388,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>老闆</t>
-  </si>
-  <si>
-    <t>A1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -424,246 +412,660 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>熱</t>
+  </si>
+  <si>
+    <t>溫</t>
+  </si>
+  <si>
+    <t>去冰</t>
+  </si>
+  <si>
+    <t>冰</t>
+  </si>
+  <si>
+    <t>前菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湯品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>點心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飲品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quantity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detailID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>takeAway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isDone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menuId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>catId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menuName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detailId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menuName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>catId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>catName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dsId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menuNameEn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isSoldOut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menuId</t>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subCatId</t>
+  </si>
+  <si>
+    <t>subCatName</t>
+  </si>
+  <si>
+    <t>isMulti</t>
+  </si>
+  <si>
+    <t>subCatId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menuSubListId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anti@gmail.com</t>
+  </si>
+  <si>
+    <t>阿姨</t>
+  </si>
+  <si>
+    <t>薯餅</t>
+  </si>
+  <si>
+    <t>potato@gmail.com</t>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cake@gmail.com</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>customer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ming@gmail.com</t>
+  </si>
+  <si>
+    <t>insider</t>
+  </si>
+  <si>
+    <t>A3@store.com</t>
+  </si>
+  <si>
+    <t>A2@store.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A4@store.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jay@gmail.com</t>
+  </si>
+  <si>
+    <t>杰倫</t>
+  </si>
+  <si>
+    <t>karen@gmail.com</t>
+  </si>
+  <si>
+    <t>楓K</t>
+  </si>
+  <si>
+    <t>squidward@gmail.com</t>
+  </si>
+  <si>
+    <t>章魚哥</t>
+  </si>
+  <si>
+    <t>sandy@gmail.com</t>
+  </si>
+  <si>
+    <t>珊迪</t>
+  </si>
+  <si>
+    <t>派大星</t>
+  </si>
+  <si>
+    <t>patrick@gmail.comcustomer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔓越莓醬佐特製布里起司</t>
+  </si>
+  <si>
+    <t>高級培根+生食級干貝</t>
+  </si>
+  <si>
+    <t>放山雞蛋+特製芥末醬</t>
+  </si>
+  <si>
+    <t>極致鮮美的海陸首選</t>
+  </si>
+  <si>
+    <t>精選果乾堅果+爆漿山羊起司</t>
+  </si>
+  <si>
+    <t>清新脆口的沙拉帶來早晨露珠般的清爽感覺</t>
+  </si>
+  <si>
+    <t>彷彿讓人置身於森林之中感受自然的豐富風味</t>
+  </si>
+  <si>
+    <t>充滿了陽光般的明亮色彩與活力讓人感受到夏日的溫暖。</t>
+  </si>
+  <si>
+    <t>繽紛的水果搭配脆爽的生菜像彩虹般絢麗的視覺享受。</t>
+  </si>
+  <si>
+    <t>濃鬱、濃鬱、起司的味道。</t>
+  </si>
+  <si>
+    <t>具有美味的奶油味和白豆的舒適感</t>
+  </si>
+  <si>
+    <t>豐盛、溫暖、充滿大膽的味道。</t>
+  </si>
+  <si>
+    <t>木質百里香、溫暖的肉荳蔻和辣椒調味味道鮮美</t>
+  </si>
+  <si>
+    <t>融合了原始菜餚的所有明亮、酥脆的味道</t>
+  </si>
+  <si>
+    <t>特製紅酒醬配精選紐約客</t>
+  </si>
+  <si>
+    <t>閃閃發光的龍蝦鮮甜味</t>
+  </si>
+  <si>
+    <t>每一口都會在嘴裡融化</t>
+  </si>
+  <si>
+    <t>蛋素草食餐</t>
+  </si>
+  <si>
+    <t>滿足一天的所需</t>
+  </si>
+  <si>
+    <t>酸甜莓果襯托出鬆餅的美好</t>
+  </si>
+  <si>
+    <t>簡單又不會尷尬的甜香</t>
+  </si>
+  <si>
+    <t>甜香酥脆一口一個</t>
+  </si>
+  <si>
+    <t>滿滿麝香葡萄太過癮</t>
+  </si>
+  <si>
+    <t>栗子泥加上好幾顆栗子的美好</t>
+  </si>
+  <si>
+    <t>哥倫比單品深烘培日曬處理</t>
+  </si>
+  <si>
+    <t>宇治高級抹茶配上小農鮮乳</t>
+  </si>
+  <si>
+    <t>加勒比熱帶風情</t>
+  </si>
+  <si>
+    <t>新鮮酸甜好滋味</t>
+  </si>
+  <si>
+    <t>./Img/PC/aa1.jpg</t>
+  </si>
+  <si>
+    <t>./Img/PC/aa9.jpg</t>
+  </si>
+  <si>
+    <t>./Img/PC/aa4.jpg</t>
+  </si>
+  <si>
+    <t>./Img/PC/aa2.jpg</t>
+  </si>
+  <si>
+    <t>./Img/PC/aa5.jpg</t>
+  </si>
+  <si>
+    <t>./Img/PC/ss2.jpg</t>
+  </si>
+  <si>
+    <t>./Img/PC/ss4.jpg</t>
+  </si>
+  <si>
+    <t>./Img/PC/ss5.jpg</t>
+  </si>
+  <si>
+    <t>./Img/PC/ss6.jpg</t>
+  </si>
+  <si>
+    <t>./Img/PC/pp2.jpg</t>
+  </si>
+  <si>
+    <t>./Img/PC/pp3.jpg</t>
+  </si>
+  <si>
+    <t>./Img/PC/pp4.jpg</t>
+  </si>
+  <si>
+    <t>./Img/PC/pp5.jpg</t>
+  </si>
+  <si>
+    <t>./Img/PC/mm11.jpg</t>
+  </si>
+  <si>
+    <t>./Img/PC/mm8.jpg</t>
+  </si>
+  <si>
+    <t>./Img/PC/mm12.jpg</t>
+  </si>
+  <si>
+    <t>./Img/PC/mm13.jpg</t>
+  </si>
+  <si>
+    <t>./Img/PC/mm1.jpg</t>
+  </si>
+  <si>
+    <t>./Img/PC/mm2.jpg</t>
+  </si>
+  <si>
+    <t>./Img/PC/dd2.jpg</t>
+  </si>
+  <si>
+    <t>./Img/PC/dd5.jpg</t>
+  </si>
+  <si>
+    <t>./Img/PC/dd6.jpg</t>
+  </si>
+  <si>
+    <t>./Img/PC/dd7.jpg</t>
+  </si>
+  <si>
+    <t>./Img/PC/dd8.jpg</t>
+  </si>
+  <si>
+    <t>./Img/PC/latte3.jpg</t>
+  </si>
+  <si>
+    <t>./Img/PC/macha2.jpg</t>
+  </si>
+  <si>
+    <t>./Img/PC/cock1.jpg</t>
+  </si>
+  <si>
+    <t>./Img/PC/tea1.jpg</t>
+  </si>
+  <si>
+    <t>p031</t>
+  </si>
+  <si>
+    <t>p032</t>
+  </si>
+  <si>
+    <t>紐澳良豬排堡</t>
+  </si>
+  <si>
+    <t>美味蟹堡</t>
+  </si>
+  <si>
+    <t>就是豬排加生菜的漢堡啦</t>
+  </si>
+  <si>
+    <t>是誰住在深海的大鳳梨裡</t>
+  </si>
+  <si>
+    <t>./Img/PC/p031.jpg</t>
+  </si>
+  <si>
+    <t>./Img/PC/p032.jpg</t>
+  </si>
+  <si>
+    <t>ee1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ee2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AH01</t>
+  </si>
+  <si>
+    <t>AH01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐點特製</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AH02</t>
+  </si>
+  <si>
+    <t>大小</t>
+  </si>
+  <si>
+    <t>AH03</t>
+  </si>
+  <si>
+    <t>溫度</t>
+  </si>
+  <si>
+    <t>AH04</t>
+  </si>
+  <si>
+    <t>醬料</t>
+  </si>
+  <si>
+    <t>減油</t>
+  </si>
+  <si>
+    <t>減鹽</t>
+  </si>
+  <si>
+    <t>減糖</t>
+  </si>
+  <si>
     <t>M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熱</t>
-  </si>
-  <si>
-    <t>溫</t>
-  </si>
-  <si>
-    <t>去冰</t>
-  </si>
-  <si>
-    <t>冰</t>
-  </si>
-  <si>
-    <t>前菜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙拉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>湯品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主菜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>點心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>飲品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>notes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quantity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>subId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>subName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>detailID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>od28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0d29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0d40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>totalPrice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>takeAway</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isDone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>subPrice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>menuId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>catId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>menuName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>detailId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>menuName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>catId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>catName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dsId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>menuNameEn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isSoldOut</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>menuId</t>
-  </si>
-  <si>
-    <t>subId</t>
-  </si>
-  <si>
-    <t>remark</t>
+  </si>
+  <si>
+    <t>紅酒醬</t>
+  </si>
+  <si>
+    <t>胡椒醬</t>
+  </si>
+  <si>
+    <t>奶油蘑菇醬</t>
+  </si>
+  <si>
+    <t>荷蘭醬</t>
+  </si>
+  <si>
+    <t>胡麻醬</t>
+  </si>
+  <si>
+    <t>糖醋醬</t>
+  </si>
+  <si>
+    <t>AH03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AH04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AH04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AH02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AH03</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>subCatId</t>
-  </si>
-  <si>
-    <t>subCatName</t>
-  </si>
-  <si>
-    <t>isMulti</t>
-  </si>
-  <si>
-    <t>subCatId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>role</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>menuSubListId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OD1669619419597</t>
+  </si>
+  <si>
+    <t>Cake</t>
+  </si>
+  <si>
+    <t>OD1669622562629</t>
+  </si>
+  <si>
+    <t>小明</t>
+  </si>
+  <si>
+    <t>OD1670063897679</t>
+  </si>
+  <si>
+    <t>謝謝老闆</t>
+  </si>
+  <si>
+    <t>OD1670067346035</t>
+  </si>
+  <si>
+    <t>OD1670121729628</t>
+  </si>
+  <si>
+    <t>OD1670122266392</t>
+  </si>
+  <si>
+    <t>OD1670122368461</t>
+  </si>
+  <si>
+    <t>OD1670122492366</t>
+  </si>
+  <si>
+    <t>p051</t>
+  </si>
+  <si>
+    <t>歡樂薯餅</t>
+  </si>
+  <si>
+    <t>請幫我加很多番茄醬</t>
+  </si>
+  <si>
+    <t>p061</t>
+  </si>
+  <si>
+    <t>早餐店奶茶</t>
+  </si>
+  <si>
+    <t>p021</t>
+  </si>
+  <si>
+    <t>果醬吐司</t>
+  </si>
+  <si>
+    <t>日式和牛堡</t>
+  </si>
+  <si>
+    <t>經典紅茶</t>
+  </si>
+  <si>
+    <t>玉米蛋餅</t>
+  </si>
+  <si>
+    <t>低脂蛋白沙拉</t>
+  </si>
+  <si>
+    <t>培根蛋餅</t>
+  </si>
+  <si>
+    <t>雞塊</t>
+  </si>
+  <si>
+    <t>薯條</t>
+  </si>
+  <si>
+    <t>熱狗</t>
+  </si>
+  <si>
+    <t>OD1669619419597</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杰倫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="181" formatCode="[&gt;99999999]0000\-000\-000;000\-000\-000"/>
+  </numFmts>
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -701,6 +1103,22 @@
       <family val="1"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -725,12 +1143,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -749,12 +1170,102 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -774,7 +1285,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="0DF212"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -809,7 +1320,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -861,7 +1372,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1055,7 +1566,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1063,47 +1574,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="2" width="15.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="47.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
     <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" ht="25.5" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D1" s="2" t="s">
         <v>136</v>
       </c>
+      <c r="D1" s="10" t="s">
+        <v>129</v>
+      </c>
       <c r="E1" s="3" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1116,11 +1627,20 @@
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="11" t="s">
         <v>69</v>
+      </c>
+      <c r="E2" t="s">
+        <v>178</v>
       </c>
       <c r="F2" s="1">
         <v>180</v>
+      </c>
+      <c r="G2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1133,11 +1653,20 @@
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="11" t="s">
         <v>70</v>
+      </c>
+      <c r="E3" t="s">
+        <v>179</v>
       </c>
       <c r="F3" s="1">
         <v>200</v>
+      </c>
+      <c r="G3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1150,11 +1679,20 @@
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="11" t="s">
         <v>71</v>
+      </c>
+      <c r="E4" t="s">
+        <v>180</v>
       </c>
       <c r="F4" s="1">
         <v>130</v>
+      </c>
+      <c r="G4" t="s">
+        <v>208</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1167,11 +1705,20 @@
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="11" t="s">
         <v>72</v>
+      </c>
+      <c r="E5" t="s">
+        <v>181</v>
       </c>
       <c r="F5" s="1">
         <v>200</v>
+      </c>
+      <c r="G5" t="s">
+        <v>209</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1184,11 +1731,20 @@
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="11" t="s">
         <v>73</v>
+      </c>
+      <c r="E6" t="s">
+        <v>182</v>
       </c>
       <c r="F6" s="1">
         <v>150</v>
+      </c>
+      <c r="G6" t="s">
+        <v>210</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1201,11 +1757,20 @@
       <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="11" t="s">
         <v>74</v>
+      </c>
+      <c r="E7" t="s">
+        <v>183</v>
       </c>
       <c r="F7" s="1">
         <v>130</v>
+      </c>
+      <c r="G7" t="s">
+        <v>211</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1218,11 +1783,20 @@
       <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="11" t="s">
         <v>75</v>
+      </c>
+      <c r="E8" t="s">
+        <v>184</v>
       </c>
       <c r="F8" s="1">
         <v>150</v>
+      </c>
+      <c r="G8" t="s">
+        <v>212</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1235,11 +1809,20 @@
       <c r="C9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="11" t="s">
         <v>76</v>
+      </c>
+      <c r="E9" t="s">
+        <v>185</v>
       </c>
       <c r="F9" s="1">
         <v>130</v>
+      </c>
+      <c r="G9" t="s">
+        <v>213</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1252,334 +1835,566 @@
       <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="11" t="s">
         <v>77</v>
+      </c>
+      <c r="E10" t="s">
+        <v>186</v>
       </c>
       <c r="F10" s="1">
         <v>150</v>
       </c>
+      <c r="G10" t="s">
+        <v>214</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>234</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>78</v>
+        <v>242</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="E11" t="s">
+        <v>238</v>
       </c>
       <c r="F11" s="1">
-        <v>120</v>
+        <v>55</v>
+      </c>
+      <c r="G11" t="s">
+        <v>240</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>235</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>79</v>
+        <v>243</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="E12" t="s">
+        <v>239</v>
       </c>
       <c r="F12" s="1">
-        <v>120</v>
+        <v>45</v>
+      </c>
+      <c r="G12" t="s">
+        <v>241</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>80</v>
+        <v>29</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" t="s">
+        <v>187</v>
       </c>
       <c r="F13" s="1">
         <v>120</v>
       </c>
+      <c r="G13" t="s">
+        <v>215</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>81</v>
+        <v>30</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" t="s">
+        <v>188</v>
       </c>
       <c r="F14" s="1">
         <v>120</v>
       </c>
+      <c r="G14" t="s">
+        <v>216</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>82</v>
+        <v>31</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" t="s">
+        <v>189</v>
       </c>
       <c r="F15" s="1">
-        <v>560</v>
+        <v>120</v>
+      </c>
+      <c r="G15" t="s">
+        <v>217</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>83</v>
+        <v>32</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" t="s">
+        <v>190</v>
       </c>
       <c r="F16" s="1">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>120</v>
+      </c>
+      <c r="G16" t="s">
+        <v>218</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>84</v>
+        <v>43</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" t="s">
+        <v>191</v>
       </c>
       <c r="F17" s="1">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>560</v>
+      </c>
+      <c r="G17" t="s">
+        <v>219</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>85</v>
+        <v>44</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" t="s">
+        <v>192</v>
       </c>
       <c r="F18" s="1">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>650</v>
+      </c>
+      <c r="G18" t="s">
+        <v>220</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>86</v>
+        <v>45</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" t="s">
+        <v>193</v>
       </c>
       <c r="F19" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>780</v>
+      </c>
+      <c r="G19" t="s">
+        <v>221</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" t="s">
+        <v>194</v>
+      </c>
+      <c r="F20" s="1">
+        <v>680</v>
+      </c>
+      <c r="G20" t="s">
+        <v>222</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" t="s">
+        <v>195</v>
+      </c>
+      <c r="F21" s="1">
+        <v>300</v>
+      </c>
+      <c r="G21" t="s">
+        <v>223</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D22" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="F20" s="1">
+      <c r="E22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F22" s="1">
         <v>460</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1" t="s">
+      <c r="G22" t="s">
+        <v>224</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F21" s="1">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F22" s="1">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>90</v>
+        <v>59</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" t="s">
+        <v>197</v>
       </c>
       <c r="F23" s="1">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>180</v>
+      </c>
+      <c r="G23" t="s">
+        <v>225</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>91</v>
+        <v>55</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" t="s">
+        <v>198</v>
       </c>
       <c r="F24" s="1">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>150</v>
+      </c>
+      <c r="G24" t="s">
+        <v>226</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" t="s">
+        <v>199</v>
+      </c>
+      <c r="F25" s="1">
+        <v>160</v>
+      </c>
+      <c r="G25" t="s">
+        <v>227</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" t="s">
+        <v>200</v>
+      </c>
+      <c r="F26" s="1">
+        <v>220</v>
+      </c>
+      <c r="G26" t="s">
+        <v>228</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D27" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="F25" s="1">
+      <c r="E27" t="s">
+        <v>201</v>
+      </c>
+      <c r="F27" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="1" t="s">
+      <c r="G27" t="s">
+        <v>229</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F26" s="1">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F27" s="1">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>95</v>
+        <v>65</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" t="s">
+        <v>202</v>
       </c>
       <c r="F28" s="1">
         <v>180</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28" t="s">
+        <v>230</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>96</v>
+        <v>66</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" t="s">
+        <v>203</v>
       </c>
       <c r="F29" s="1">
         <v>180</v>
+      </c>
+      <c r="G29" t="s">
+        <v>231</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" t="s">
+        <v>204</v>
+      </c>
+      <c r="F30" s="1">
+        <v>180</v>
+      </c>
+      <c r="G30" t="s">
+        <v>232</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" t="s">
+        <v>205</v>
+      </c>
+      <c r="F31" s="1">
+        <v>180</v>
+      </c>
+      <c r="G31" t="s">
+        <v>233</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1591,10 +2406,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B2" sqref="B2:C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -1604,13 +2419,420 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="B1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C1" t="s">
-        <v>147</v>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C11" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C12" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -1631,10 +2853,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1642,7 +2864,7 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1650,7 +2872,7 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1658,7 +2880,7 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1666,7 +2888,7 @@
         <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1674,7 +2896,7 @@
         <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1682,7 +2904,7 @@
         <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1694,87 +2916,269 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="3" max="7" width="11.33203125" customWidth="1"/>
-    <col min="9" max="9" width="25.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="4" max="8" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="25.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13">
+      <c r="B1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" t="s">
         <v>121</v>
       </c>
-      <c r="B1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D1" t="s">
-        <v>129</v>
-      </c>
       <c r="E1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="G1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="H1" t="s">
-        <v>148</v>
-      </c>
-      <c r="K1" t="s">
-        <v>117</v>
+        <v>125</v>
+      </c>
+      <c r="I1" t="s">
+        <v>140</v>
       </c>
       <c r="L1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
-        <v>124</v>
-      </c>
-      <c r="L2">
+        <v>113</v>
+      </c>
+      <c r="M1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>125</v>
-      </c>
-      <c r="L3">
+      <c r="B2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E2">
+        <v>70</v>
+      </c>
+      <c r="F2" s="12">
+        <v>44893</v>
+      </c>
+      <c r="G2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
-        <v>126</v>
-      </c>
-      <c r="L4">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="B3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E3">
+        <v>115</v>
+      </c>
+      <c r="F3" s="12">
+        <v>44893</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>273</v>
+      </c>
+      <c r="E4">
+        <v>115</v>
+      </c>
+      <c r="F4" s="12">
+        <v>44898</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>275</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="B5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E5">
+        <v>270</v>
+      </c>
+      <c r="F5" s="12">
+        <v>44898</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="B6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E6">
+        <v>155</v>
+      </c>
+      <c r="F6" s="12">
+        <v>44899</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7">
+        <v>70</v>
+      </c>
+      <c r="F7" s="12">
+        <v>44899</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>279</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E8">
+        <v>140</v>
+      </c>
+      <c r="F8" s="12">
+        <v>44899</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E9">
+        <v>215</v>
+      </c>
+      <c r="F9" s="12">
+        <v>44899</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1785,10 +3189,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -1799,16 +3203,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E1" s="4"/>
     </row>
@@ -1817,10 +3221,14 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+        <v>244</v>
+      </c>
+      <c r="C2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
@@ -1828,10 +3236,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>105</v>
+        <v>244</v>
+      </c>
+      <c r="C3" t="s">
+        <v>254</v>
       </c>
       <c r="D3" s="4">
         <v>0</v>
@@ -1843,13 +3251,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>106</v>
+        <v>244</v>
+      </c>
+      <c r="C4" t="s">
+        <v>255</v>
       </c>
       <c r="D4" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -1858,10 +3266,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>107</v>
+        <v>247</v>
+      </c>
+      <c r="C5" t="s">
+        <v>256</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>
@@ -1873,13 +3281,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>108</v>
+        <v>247</v>
+      </c>
+      <c r="C6" t="s">
+        <v>257</v>
       </c>
       <c r="D6" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E6" s="4"/>
     </row>
@@ -1888,10 +3296,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>109</v>
+        <v>264</v>
+      </c>
+      <c r="C7" t="s">
+        <v>103</v>
       </c>
       <c r="D7" s="4">
         <v>0</v>
@@ -1899,9 +3307,14 @@
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="5"/>
-      <c r="C8" s="4" t="s">
-        <v>110</v>
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C8" t="s">
+        <v>104</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -1909,28 +3322,117 @@
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="5"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="5"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>264</v>
+      </c>
+      <c r="C10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="5"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>265</v>
+      </c>
+      <c r="C11" t="s">
+        <v>258</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="5"/>
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>265</v>
+      </c>
+      <c r="C12" t="s">
+        <v>259</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="5"/>
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>251</v>
+      </c>
+      <c r="C13" t="s">
+        <v>260</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>251</v>
+      </c>
+      <c r="C14" t="s">
+        <v>261</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>251</v>
+      </c>
+      <c r="C15" t="s">
+        <v>262</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>251</v>
+      </c>
+      <c r="C16" t="s">
+        <v>263</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1940,10 +3442,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="A2" sqref="A2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -1955,13 +3457,57 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C1" t="s">
-        <v>151</v>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1972,50 +3518,58 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B2" sqref="B2:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="2" max="2" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D1" t="s">
-        <v>154</v>
+        <v>145</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>146</v>
       </c>
       <c r="E1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>97</v>
+      <c r="B2" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="C2" t="str">
-        <f>"0000"</f>
+        <f t="shared" ref="C2:C10" si="0">"0000"</f>
         <v>0000</v>
       </c>
+      <c r="D2" s="8">
+        <v>912345678</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>158</v>
+      </c>
       <c r="F2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2023,14 +3577,20 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C4" si="0">"0000"</f>
+        <f t="shared" si="0"/>
         <v>0000</v>
       </c>
+      <c r="D3" s="8">
+        <v>958783183</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>160</v>
+      </c>
       <c r="F3" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2038,116 +3598,256 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
         <v>0000</v>
       </c>
+      <c r="D4" s="8">
+        <v>911333555</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>163</v>
+      </c>
       <c r="F4" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" t="s">
-        <v>161</v>
+      <c r="B5" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" t="str">
+        <f>"0000"</f>
+        <v>0000</v>
+      </c>
+      <c r="D5" s="8">
+        <v>988168168</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="F5" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>0000</v>
+      </c>
+      <c r="D6" s="8">
+        <v>926398045</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>161</v>
-      </c>
-      <c r="F6" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" t="s">
-        <v>162</v>
-      </c>
-      <c r="F7" t="s">
-        <v>160</v>
+      <c r="B7" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>0000</v>
+      </c>
+      <c r="D7" s="8">
+        <v>911321123</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" t="s">
-        <v>163</v>
-      </c>
-      <c r="F8" t="s">
-        <v>158</v>
+      <c r="B8" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>0000</v>
+      </c>
+      <c r="D8" s="8">
+        <v>911123123</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>0000</v>
+      </c>
+      <c r="D9" s="8">
+        <v>912123222</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>0000</v>
+      </c>
+      <c r="D10" s="8">
+        <v>911123333</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="7">
+        <v>9</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" s="7">
+        <v>9</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="7">
+        <v>9</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E11" r:id="rId1"/>
+    <hyperlink ref="E13" r:id="rId2"/>
+    <hyperlink ref="E10" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
+    <col min="2" max="2" width="18" customWidth="1"/>
     <col min="4" max="4" width="11.21875" customWidth="1"/>
     <col min="8" max="8" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" t="s">
         <v>134</v>
-      </c>
-      <c r="D1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2155,23 +3855,483 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>296</v>
+      </c>
+      <c r="C2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3">
+      <c r="B3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D3" t="s">
+        <v>285</v>
+      </c>
+      <c r="E3">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C4" t="s">
+        <v>286</v>
+      </c>
+      <c r="D4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
         <v>104</v>
       </c>
-      <c r="B3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4">
+      <c r="B6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>288</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" t="s">
+        <v>289</v>
+      </c>
+      <c r="E7">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
         <v>105</v>
       </c>
-      <c r="B4" t="s">
-        <v>124</v>
+      <c r="B12" t="s">
+        <v>274</v>
+      </c>
+      <c r="C12" t="s">
+        <v>284</v>
+      </c>
+      <c r="D12" t="s">
+        <v>285</v>
+      </c>
+      <c r="E12">
+        <v>15</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" t="s">
+        <v>274</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>290</v>
+      </c>
+      <c r="E13">
+        <v>50</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" t="s">
+        <v>276</v>
+      </c>
+      <c r="C18" t="s">
+        <v>281</v>
+      </c>
+      <c r="D18" t="s">
+        <v>282</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" t="s">
+        <v>276</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
+        <v>291</v>
+      </c>
+      <c r="E19">
+        <v>80</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" t="s">
+        <v>276</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>292</v>
+      </c>
+      <c r="E20">
+        <v>40</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" t="s">
+        <v>276</v>
+      </c>
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" t="s">
+        <v>289</v>
+      </c>
+      <c r="E21">
+        <v>15</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" t="s">
+        <v>276</v>
+      </c>
+      <c r="C22" t="s">
+        <v>284</v>
+      </c>
+      <c r="D22" t="s">
+        <v>285</v>
+      </c>
+      <c r="E22">
+        <v>15</v>
+      </c>
+      <c r="F22">
+        <v>10</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" t="s">
+        <v>276</v>
+      </c>
+      <c r="C23" t="s">
+        <v>284</v>
+      </c>
+      <c r="D23" t="s">
+        <v>285</v>
+      </c>
+      <c r="E23">
+        <v>15</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" t="s">
+        <v>277</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>288</v>
+      </c>
+      <c r="E25">
+        <v>120</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" t="s">
+        <v>277</v>
+      </c>
+      <c r="C26" t="s">
+        <v>281</v>
+      </c>
+      <c r="D26" t="s">
+        <v>282</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" t="s">
+        <v>277</v>
+      </c>
+      <c r="C27" t="s">
+        <v>284</v>
+      </c>
+      <c r="D27" t="s">
+        <v>285</v>
+      </c>
+      <c r="E27">
+        <v>15</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" t="s">
+        <v>278</v>
+      </c>
+      <c r="C30" t="s">
+        <v>235</v>
+      </c>
+      <c r="D30" t="s">
+        <v>237</v>
+      </c>
+      <c r="E30">
+        <v>55</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" t="s">
+        <v>278</v>
+      </c>
+      <c r="C31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" t="s">
+        <v>289</v>
+      </c>
+      <c r="E31">
+        <v>15</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" t="s">
+        <v>279</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>292</v>
+      </c>
+      <c r="E36">
+        <v>35</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="C37" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" t="s">
+        <v>291</v>
+      </c>
+      <c r="E37">
+        <v>80</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="C38" t="s">
+        <v>284</v>
+      </c>
+      <c r="D38" t="s">
+        <v>285</v>
+      </c>
+      <c r="E38">
+        <v>25</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" t="s">
+        <v>280</v>
+      </c>
+      <c r="C41" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" t="s">
+        <v>293</v>
+      </c>
+      <c r="E41">
+        <v>30</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="C42" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" t="s">
+        <v>294</v>
+      </c>
+      <c r="E42">
+        <v>30</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="C43" t="s">
+        <v>281</v>
+      </c>
+      <c r="D43" t="s">
+        <v>282</v>
+      </c>
+      <c r="E43">
+        <v>10</v>
+      </c>
+      <c r="G43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="C44" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" t="s">
+        <v>295</v>
+      </c>
+      <c r="E44">
+        <v>30</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="C45" t="s">
+        <v>284</v>
+      </c>
+      <c r="D45" t="s">
+        <v>285</v>
+      </c>
+      <c r="E45">
+        <v>25</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2192,13 +4352,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:3">
